--- a/b.xlsx
+++ b/b.xlsx
@@ -12225,7 +12225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17985,7 +17985,7 @@
         <v>25</v>
       </c>
       <c r="I113" t="n">
-        <v>43.31999999999999</v>
+        <v>43.32</v>
       </c>
       <c r="J113" t="n">
         <v>89.59999999999999</v>
@@ -18038,7 +18038,7 @@
         <v>60</v>
       </c>
       <c r="I114" t="n">
-        <v>68.69999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="J114" t="n">
         <v>208</v>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>20.40000000000001</v>
+        <v>20.4</v>
       </c>
       <c r="J115" t="n">
         <v>37.41</v>
@@ -18112,6 +18112,112 @@
       </c>
       <c r="O115" t="n">
         <v>2.04</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>DIVANILDE APARECIDA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>52944115120</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>11796</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1153.64</v>
+      </c>
+      <c r="G116" t="n">
+        <v>400</v>
+      </c>
+      <c r="H116" t="n">
+        <v>100</v>
+      </c>
+      <c r="I116" t="n">
+        <v>142.3599999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>377.47</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>10</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>JEFFERSON MODESTO</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01023688131</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>29095</v>
+      </c>
+      <c r="E117" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3232.46</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-137.46</v>
+      </c>
+      <c r="J117" t="n">
+        <v>931.04</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4</v>
+      </c>
+      <c r="L117" t="n">
+        <v>12</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
